--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="143">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,24 +43,18 @@
     <t>poorly</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
     <t>useless</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>stopped</t>
   </si>
   <si>
     <t>returned</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
@@ -73,370 +67,367 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>beautifully</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>beautifully</t>
+    <t>awesome</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>fantastic</t>
   </si>
   <si>
     <t>beautiful</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>enjoy</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>salad</t>
+    <t>potatoes</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
+    <t>wife</t>
+  </si>
+  <si>
     <t>apples</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>wedding</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>glad</t>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cooke</t>
   </si>
   <si>
     <t>husband</t>
   </si>
   <si>
-    <t>kids</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>cake</t>
+    <t>son</t>
   </si>
   <si>
     <t>mas</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>cooke</t>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>sturdy</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
     <t>rice</t>
   </si>
   <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
     <t>comfortable</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>ze</t>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>baking</t>
   </si>
   <si>
     <t>pop</t>
   </si>
   <si>
-    <t>hen</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>bread</t>
+    <t>powerful</t>
   </si>
   <si>
     <t>cooks</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>dough</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>cookies</t>
+    <t>old</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>home</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>old</t>
+    <t>cream</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>baking</t>
+    <t>day</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>home</t>
+    <t>w</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>durable</t>
+  </si>
+  <si>
+    <t>gr</t>
   </si>
   <si>
     <t>always</t>
   </si>
   <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
     <t>fan</t>
   </si>
   <si>
-    <t>gr</t>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>peel</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>exactly</t>
   </si>
   <si>
     <t>anyone</t>
   </si>
   <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>many</t>
   </si>
   <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>peel</t>
-  </si>
-  <si>
-    <t>works</t>
+    <t>fast</t>
   </si>
   <si>
     <t>far</t>
   </si>
   <si>
-    <t>maker</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
     <t>brand</t>
   </si>
   <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>big</t>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>also</t>
   </si>
   <si>
     <t>makes</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>hot</t>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>lot</t>
   </si>
   <si>
-    <t>cup</t>
+    <t>job</t>
   </si>
   <si>
     <t>long</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>purchased</t>
+    <t>really</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>purchase</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>one</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>handle</t>
-  </si>
-  <si>
     <t>made</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>better</t>
   </si>
   <si>
     <t>used</t>
@@ -809,7 +800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q129"/>
+  <dimension ref="A1:Q128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -817,10 +808,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -878,13 +869,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -896,10 +887,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K3">
         <v>0.9655172413793104</v>
@@ -928,7 +919,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7037037037037037</v>
+        <v>0.475</v>
       </c>
       <c r="C4">
         <v>19</v>
@@ -946,19 +937,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.956989247311828</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L4">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -970,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -978,13 +969,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.425</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -996,19 +987,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.90625</v>
+        <v>0.9247311827956989</v>
       </c>
       <c r="L5">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="M5">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1020,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1028,37 +1019,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3584905660377358</v>
+        <v>0.3018867924528302</v>
       </c>
       <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>37</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6">
-        <v>19</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>34</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="K6">
-        <v>0.8947368421052632</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1078,13 +1069,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.303030303030303</v>
+        <v>0.2929292929292929</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1096,19 +1087,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.8452012383900929</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L7">
-        <v>546</v>
+        <v>62</v>
       </c>
       <c r="M7">
-        <v>546</v>
+        <v>62</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1120,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1128,13 +1119,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2868217054263566</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C8">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1146,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>0.8405797101449275</v>
+        <v>0.8671875</v>
       </c>
       <c r="L8">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="M8">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1170,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1178,13 +1169,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2205882352941176</v>
+        <v>0.1189189189189189</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1196,145 +1187,97 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>53</v>
+        <v>163</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>0.8478260869565217</v>
+      </c>
+      <c r="L9">
+        <v>39</v>
+      </c>
+      <c r="M9">
+        <v>39</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10">
+        <v>0.8359133126934984</v>
+      </c>
+      <c r="L10">
+        <v>540</v>
+      </c>
+      <c r="M10">
+        <v>540</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K9">
-        <v>0.8260869565217391</v>
-      </c>
-      <c r="L9">
-        <v>38</v>
-      </c>
-      <c r="M9">
-        <v>38</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.1923076923076923</v>
-      </c>
-      <c r="C10">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>63</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10">
+      <c r="K11">
         <v>0.8076923076923077</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <v>21</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>21</v>
       </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.1513513513513514</v>
-      </c>
-      <c r="C11">
-        <v>28</v>
-      </c>
-      <c r="D11">
-        <v>28</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>157</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11">
-        <v>0.7727272727272727</v>
-      </c>
-      <c r="L11">
-        <v>34</v>
-      </c>
-      <c r="M11">
-        <v>34</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>0.7532467532467533</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L12">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="M12">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1346,21 +1289,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.75</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L13">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M13">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1372,21 +1315,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.7111111111111111</v>
+        <v>0.7186147186147186</v>
       </c>
       <c r="L14">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="M14">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1398,21 +1341,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.7056277056277056</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L15">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="M15">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1424,15 +1367,15 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>68</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.704225352112676</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="L16">
         <v>50</v>
@@ -1450,21 +1393,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.688135593220339</v>
+        <v>0.6474576271186441</v>
       </c>
       <c r="L17">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="M17">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1476,21 +1419,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.6857142857142857</v>
+        <v>0.6460674157303371</v>
       </c>
       <c r="L18">
-        <v>24</v>
+        <v>805</v>
       </c>
       <c r="M18">
-        <v>24</v>
+        <v>805</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1502,21 +1445,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>441</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.684931506849315</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="L19">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1528,21 +1471,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6615384615384615</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L20">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M20">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1554,21 +1497,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.6538461538461539</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="M21">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1580,21 +1523,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.6324237560192616</v>
+        <v>0.6114285714285714</v>
       </c>
       <c r="L22">
-        <v>788</v>
+        <v>107</v>
       </c>
       <c r="M22">
-        <v>788</v>
+        <v>107</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1606,21 +1549,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>458</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.6296296296296297</v>
+        <v>0.609375</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1632,21 +1575,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.625</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L24">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1658,21 +1601,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.6176470588235294</v>
+        <v>0.6</v>
       </c>
       <c r="L25">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="M25">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1684,47 +1627,47 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.6041666666666666</v>
+        <v>0.5915492957746479</v>
       </c>
       <c r="L26">
+        <v>42</v>
+      </c>
+      <c r="M26">
+        <v>42</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>29</v>
-      </c>
-      <c r="M26">
-        <v>29</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>19</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.5964912280701754</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L27">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M27">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1736,21 +1679,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.5918367346938775</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L28">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M28">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1762,21 +1705,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.5897435897435898</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L29">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M29">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1788,21 +1731,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.5833333333333334</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L30">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1814,21 +1757,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.5828571428571429</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L31">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="M31">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1840,47 +1783,47 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32">
+        <v>0.5480769230769231</v>
+      </c>
+      <c r="L32">
+        <v>57</v>
+      </c>
+      <c r="M32">
+        <v>57</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>47</v>
-      </c>
-      <c r="K32">
-        <v>0.5769230769230769</v>
-      </c>
-      <c r="L32">
-        <v>60</v>
-      </c>
-      <c r="M32">
-        <v>60</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>44</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.5757575757575758</v>
+        <v>0.5470085470085471</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="M33">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1892,21 +1835,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.5714285714285714</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="L34">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M34">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1918,21 +1861,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>0.5641025641025641</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1944,21 +1887,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>0.5555555555555556</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L36">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="M36">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1970,21 +1913,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>0.5470085470085471</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L37">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="M37">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1996,21 +1939,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K38">
-        <v>0.5384615384615384</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="L38">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M38">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2022,21 +1965,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K39">
-        <v>0.5301204819277109</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L39">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M39">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2048,21 +1991,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K40">
-        <v>0.525</v>
+        <v>0.5</v>
       </c>
       <c r="L40">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M40">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2074,21 +2017,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K41">
-        <v>0.5149700598802395</v>
+        <v>0.4970059880239521</v>
       </c>
       <c r="L41">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M41">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2100,21 +2043,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K42">
-        <v>0.5098039215686274</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L42">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M42">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2126,21 +2069,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K43">
-        <v>0.4918032786885246</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="L43">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M43">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2152,21 +2095,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K44">
-        <v>0.4887218045112782</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L44">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M44">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2178,21 +2121,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K45">
-        <v>0.4879518072289157</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="L45">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="M45">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2204,21 +2147,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>85</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K46">
-        <v>0.4736842105263158</v>
+        <v>0.463855421686747</v>
       </c>
       <c r="L46">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="M46">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2230,12 +2173,12 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>40</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K47">
         <v>0.4634146341463415</v>
@@ -2261,16 +2204,16 @@
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K48">
-        <v>0.4444444444444444</v>
+        <v>0.44</v>
       </c>
       <c r="L48">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M48">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2282,21 +2225,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K49">
-        <v>0.4444444444444444</v>
+        <v>0.4320987654320987</v>
       </c>
       <c r="L49">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M49">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2308,21 +2251,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K50">
-        <v>0.4186046511627907</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="L50">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M50">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2334,21 +2277,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K51">
-        <v>0.4166666666666667</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="L51">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M51">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2360,21 +2303,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K52">
-        <v>0.41</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L52">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M52">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2386,21 +2329,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K53">
-        <v>0.4081632653061225</v>
+        <v>0.4</v>
       </c>
       <c r="L53">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M53">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2412,21 +2355,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K54">
-        <v>0.392156862745098</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="L54">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="M54">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2438,21 +2381,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>248</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K55">
-        <v>0.3829787234042553</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L55">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M55">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2464,21 +2407,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K56">
-        <v>0.3815789473684211</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="L56">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M56">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2490,21 +2433,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K57">
-        <v>0.375</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="L57">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M57">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2516,21 +2459,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K58">
-        <v>0.3695652173913043</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L58">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M58">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2542,21 +2485,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K59">
-        <v>0.3618677042801556</v>
+        <v>0.3603603603603603</v>
       </c>
       <c r="L59">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="M59">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2568,21 +2511,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>164</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K60">
-        <v>0.3603603603603603</v>
+        <v>0.3553921568627451</v>
       </c>
       <c r="L60">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="M60">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2594,21 +2537,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>71</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K61">
-        <v>0.3458646616541353</v>
+        <v>0.3533834586466165</v>
       </c>
       <c r="L61">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M61">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2620,21 +2563,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K62">
-        <v>0.3452054794520548</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="L62">
-        <v>252</v>
+        <v>16</v>
       </c>
       <c r="M62">
-        <v>252</v>
+        <v>16</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2646,21 +2589,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>478</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K63">
-        <v>0.3387096774193548</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="L63">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M63">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2672,21 +2615,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K64">
-        <v>0.3166666666666667</v>
+        <v>0.3424124513618677</v>
       </c>
       <c r="L64">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="M64">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2698,21 +2641,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>41</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K65">
-        <v>0.316546762589928</v>
+        <v>0.3382352941176471</v>
       </c>
       <c r="L65">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="M65">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2724,21 +2667,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>95</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K66">
-        <v>0.2941176470588235</v>
+        <v>0.3356164383561644</v>
       </c>
       <c r="L66">
-        <v>20</v>
+        <v>245</v>
       </c>
       <c r="M66">
-        <v>20</v>
+        <v>245</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2750,21 +2693,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>48</v>
+        <v>485</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K67">
-        <v>0.2909090909090909</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="L67">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M67">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2776,21 +2719,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>39</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K68">
-        <v>0.2870813397129187</v>
+        <v>0.3093525179856115</v>
       </c>
       <c r="L68">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="M68">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2802,21 +2745,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>149</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K69">
-        <v>0.2777777777777778</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="L69">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M69">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2828,21 +2771,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K70">
-        <v>0.2772277227722773</v>
+        <v>0.2781456953642384</v>
       </c>
       <c r="L70">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="M70">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2854,21 +2797,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>73</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K71">
-        <v>0.2744886975242196</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L71">
-        <v>255</v>
+        <v>30</v>
       </c>
       <c r="M71">
-        <v>255</v>
+        <v>30</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2880,21 +2823,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>674</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K72">
-        <v>0.2702702702702703</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L72">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M72">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2906,21 +2849,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K73">
-        <v>0.2619047619047619</v>
+        <v>0.2572658772874058</v>
       </c>
       <c r="L73">
-        <v>22</v>
+        <v>239</v>
       </c>
       <c r="M73">
-        <v>22</v>
+        <v>239</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2932,21 +2875,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>62</v>
+        <v>690</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K74">
-        <v>0.2575757575757576</v>
+        <v>0.2535885167464115</v>
       </c>
       <c r="L74">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="M74">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2958,21 +2901,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>49</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K75">
-        <v>0.2516556291390729</v>
+        <v>0.25</v>
       </c>
       <c r="L75">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="M75">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2984,21 +2927,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>113</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K76">
-        <v>0.25</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="L76">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M76">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -3010,21 +2953,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K77">
-        <v>0.2476190476190476</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="L77">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M77">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3036,21 +2979,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K78">
-        <v>0.2473118279569892</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="L78">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M78">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3062,21 +3005,21 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K79">
-        <v>0.2385321100917431</v>
+        <v>0.2293577981651376</v>
       </c>
       <c r="L79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3088,21 +3031,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K80">
-        <v>0.234375</v>
+        <v>0.2282608695652174</v>
       </c>
       <c r="L80">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M80">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3114,47 +3057,47 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>49</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K81">
-        <v>0.2321428571428572</v>
+        <v>0.2225705329153605</v>
       </c>
       <c r="L81">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="M81">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="N81">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O81">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <v>86</v>
+        <v>248</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K82">
-        <v>0.2235294117647059</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L82">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M82">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3166,21 +3109,21 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K83">
-        <v>0.2222222222222222</v>
+        <v>0.2080536912751678</v>
       </c>
       <c r="L83">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M83">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3192,21 +3135,21 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>56</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K84">
-        <v>0.2173913043478261</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="L84">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M84">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3218,21 +3161,21 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K85">
-        <v>0.2147651006711409</v>
+        <v>0.2026490066225166</v>
       </c>
       <c r="L85">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="M85">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3244,21 +3187,21 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>117</v>
+        <v>602</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K86">
-        <v>0.2136752136752137</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="L86">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M86">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3270,21 +3213,21 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>92</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K87">
-        <v>0.213166144200627</v>
+        <v>0.190537084398977</v>
       </c>
       <c r="L87">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="M87">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3296,21 +3239,21 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>251</v>
+        <v>633</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K88">
-        <v>0.2105263157894737</v>
+        <v>0.19</v>
       </c>
       <c r="L88">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M88">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3322,21 +3265,21 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K89">
-        <v>0.2048192771084337</v>
+        <v>0.1882352941176471</v>
       </c>
       <c r="L89">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M89">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3348,47 +3291,47 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K90">
-        <v>0.1960264900662252</v>
+        <v>0.1875</v>
       </c>
       <c r="L90">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="M90">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="N90">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O90">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90">
-        <v>607</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K91">
-        <v>0.1885245901639344</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="L91">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M91">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3400,21 +3343,21 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>99</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K92">
-        <v>0.1882352941176471</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="L92">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M92">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -3426,47 +3369,47 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>69</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K93">
-        <v>0.1856594110115237</v>
+        <v>0.1782945736434109</v>
       </c>
       <c r="L93">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="M93">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="N93">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O93">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93">
-        <v>636</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K94">
-        <v>0.18</v>
+        <v>0.1721311475409836</v>
       </c>
       <c r="L94">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M94">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -3478,12 +3421,12 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>82</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K95">
         <v>0.1717171717171717</v>
@@ -3509,42 +3452,42 @@
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K96">
-        <v>0.1682926829268293</v>
+        <v>0.1602564102564103</v>
       </c>
       <c r="L96">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="M96">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="N96">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O96">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q96">
-        <v>341</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K97">
-        <v>0.1615384615384615</v>
+        <v>0.1580756013745704</v>
       </c>
       <c r="L97">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="M97">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -3556,12 +3499,12 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>109</v>
+        <v>245</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K98">
         <v>0.1515151515151515</v>
@@ -3587,16 +3530,16 @@
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K99">
-        <v>0.1512915129151292</v>
+        <v>0.1485148514851485</v>
       </c>
       <c r="L99">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="M99">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -3608,73 +3551,73 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>230</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K100">
-        <v>0.145945945945946</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="L100">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="M100">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N100">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O100">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q100">
-        <v>316</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K101">
-        <v>0.1419753086419753</v>
+        <v>0.1461538461538462</v>
       </c>
       <c r="L101">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M101">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N101">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O101">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q101">
-        <v>139</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K102">
-        <v>0.1407407407407407</v>
+        <v>0.1402439024390244</v>
       </c>
       <c r="L102">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="M102">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -3686,21 +3629,21 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>232</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K103">
-        <v>0.1395348837209302</v>
+        <v>0.1386861313868613</v>
       </c>
       <c r="L103">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="M103">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -3712,21 +3655,21 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>111</v>
+        <v>354</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K104">
-        <v>0.1374570446735395</v>
+        <v>0.1360381861575179</v>
       </c>
       <c r="L104">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="M104">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -3738,21 +3681,21 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>251</v>
+        <v>362</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K105">
-        <v>0.1363636363636364</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="L105">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="M105">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -3764,21 +3707,21 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>380</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K106">
-        <v>0.1355932203389831</v>
+        <v>0.1318181818181818</v>
       </c>
       <c r="L106">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="M106">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -3790,47 +3733,47 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>153</v>
+        <v>382</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K107">
-        <v>0.1341463414634146</v>
+        <v>0.1297297297297297</v>
       </c>
       <c r="L107">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="M107">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="N107">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O107">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q107">
-        <v>142</v>
+        <v>322</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K108">
-        <v>0.1330049261083744</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L108">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M108">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -3842,21 +3785,21 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>176</v>
+        <v>235</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K109">
-        <v>0.1302521008403361</v>
+        <v>0.1288343558282209</v>
       </c>
       <c r="L109">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M109">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -3868,21 +3811,21 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>207</v>
+        <v>142</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K110">
-        <v>0.1241830065359477</v>
+        <v>0.1231527093596059</v>
       </c>
       <c r="L110">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M110">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -3894,21 +3837,21 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>134</v>
+        <v>178</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K111">
-        <v>0.1217948717948718</v>
+        <v>0.1180811808118081</v>
       </c>
       <c r="L111">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="M111">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -3920,47 +3863,47 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>137</v>
+        <v>239</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K112">
-        <v>0.1207729468599034</v>
+        <v>0.1145038167938931</v>
       </c>
       <c r="L112">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M112">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N112">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O112">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q112">
-        <v>182</v>
+        <v>116</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K113">
-        <v>0.1193317422434367</v>
+        <v>0.1045751633986928</v>
       </c>
       <c r="L113">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="M113">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="N113">
         <v>1</v>
@@ -3972,21 +3915,21 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>369</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K114">
-        <v>0.1162280701754386</v>
+        <v>0.09868421052631579</v>
       </c>
       <c r="L114">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="M114">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -3998,21 +3941,21 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="115" spans="10:17">
       <c r="J115" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K115">
-        <v>0.1111111111111111</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="L115">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M115">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N115">
         <v>1</v>
@@ -4024,73 +3967,73 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="116" spans="10:17">
       <c r="J116" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K116">
-        <v>0.109038737446198</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="L116">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="M116">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="N116">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O116">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q116">
-        <v>621</v>
+        <v>224</v>
       </c>
     </row>
     <row r="117" spans="10:17">
       <c r="J117" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K117">
-        <v>0.09677419354838709</v>
+        <v>0.09178743961352658</v>
       </c>
       <c r="L117">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M117">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N117">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O117">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q117">
-        <v>224</v>
+        <v>188</v>
       </c>
     </row>
     <row r="118" spans="10:17">
       <c r="J118" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K118">
-        <v>0.09375</v>
+        <v>0.08469945355191257</v>
       </c>
       <c r="L118">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M118">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N118">
         <v>1</v>
@@ -4102,73 +4045,73 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>145</v>
+        <v>335</v>
       </c>
     </row>
     <row r="119" spans="10:17">
       <c r="J119" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K119">
-        <v>0.08743169398907104</v>
+        <v>0.07951356407857811</v>
       </c>
       <c r="L119">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="M119">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="N119">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O119">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q119">
-        <v>334</v>
+        <v>984</v>
       </c>
     </row>
     <row r="120" spans="10:17">
       <c r="J120" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K120">
-        <v>0.0830223880597015</v>
+        <v>0.07604017216642754</v>
       </c>
       <c r="L120">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="M120">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="N120">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O120">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q120">
-        <v>983</v>
+        <v>644</v>
       </c>
     </row>
     <row r="121" spans="10:17">
       <c r="J121" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K121">
-        <v>0.06345177664974619</v>
+        <v>0.06985294117647059</v>
       </c>
       <c r="L121">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M121">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N121">
         <v>1</v>
@@ -4180,21 +4123,21 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>369</v>
+        <v>253</v>
       </c>
     </row>
     <row r="122" spans="10:17">
       <c r="J122" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K122">
-        <v>0.06276150627615062</v>
+        <v>0.06826568265682657</v>
       </c>
       <c r="L122">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M122">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="N122">
         <v>1</v>
@@ -4206,73 +4149,73 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>224</v>
+        <v>505</v>
       </c>
     </row>
     <row r="123" spans="10:17">
       <c r="J123" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K123">
-        <v>0.06067961165048544</v>
+        <v>0.06598984771573604</v>
       </c>
       <c r="L123">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M123">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N123">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O123">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q123">
-        <v>387</v>
+        <v>368</v>
       </c>
     </row>
     <row r="124" spans="10:17">
       <c r="J124" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K124">
-        <v>0.05914972273567468</v>
+        <v>0.06038647342995169</v>
       </c>
       <c r="L124">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M124">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N124">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O124">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q124">
-        <v>509</v>
+        <v>389</v>
       </c>
     </row>
     <row r="125" spans="10:17">
       <c r="J125" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K125">
-        <v>0.05514705882352941</v>
+        <v>0.04789272030651341</v>
       </c>
       <c r="L125">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M125">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N125">
         <v>1</v>
@@ -4284,111 +4227,85 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>257</v>
+        <v>497</v>
       </c>
     </row>
     <row r="126" spans="10:17">
       <c r="J126" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K126">
-        <v>0.05172413793103448</v>
+        <v>0.04683195592286502</v>
       </c>
       <c r="L126">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M126">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N126">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O126">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q126">
-        <v>495</v>
+        <v>346</v>
       </c>
     </row>
     <row r="127" spans="10:17">
       <c r="J127" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K127">
-        <v>0.04683195592286502</v>
+        <v>0.04152249134948097</v>
       </c>
       <c r="L127">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="M127">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="N127">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="O127">
-        <v>0.11</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P127" t="b">
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>346</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="128" spans="10:17">
       <c r="J128" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K128">
-        <v>0.04329004329004329</v>
+        <v>0.02356020942408377</v>
       </c>
       <c r="L128">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M128">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="N128">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="O128">
-        <v>0.04000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="P128" t="b">
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="129" spans="10:17">
-      <c r="J129" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K129">
-        <v>0.02628120893561104</v>
-      </c>
-      <c r="L129">
-        <v>20</v>
-      </c>
-      <c r="M129">
-        <v>26</v>
-      </c>
-      <c r="N129">
-        <v>0.77</v>
-      </c>
-      <c r="O129">
-        <v>0.23</v>
-      </c>
-      <c r="P129" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q129">
-        <v>741</v>
+        <v>746</v>
       </c>
     </row>
   </sheetData>
